--- a/前端单词/JS单词第一个.xlsx
+++ b/前端单词/JS单词第一个.xlsx
@@ -4,13 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12690"/>
+    <workbookView windowWidth="19980" windowHeight="2115" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="弹性布局" sheetId="4" r:id="rId1"/>
-    <sheet name="单词" sheetId="1" r:id="rId2"/>
+    <sheet name="JS单词" sheetId="1" r:id="rId2"/>
     <sheet name="数组和字符串方法总结" sheetId="2" r:id="rId3"/>
-    <sheet name="字符串类型的作用是什么" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -4874,15 +4873,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>20320</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>496570</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1124585</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>727075</xdr:rowOff>
+      <xdr:colOff>1600835</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4899,7 +4898,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20320" y="5178425"/>
+          <a:off x="496570" y="5702300"/>
           <a:ext cx="4609465" cy="4457700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4958,15 +4957,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>549275</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>256540</xdr:rowOff>
+      <xdr:colOff>1435100</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>180340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>314325</xdr:rowOff>
+      <xdr:colOff>942975</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>790575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4983,7 +4982,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4054475" y="3958590"/>
+          <a:off x="4940300" y="1196340"/>
           <a:ext cx="5813425" cy="6344285"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5373,8 +5372,8 @@
   <sheetPr/>
   <dimension ref="A1:R42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5693,8 +5692,8 @@
   <sheetPr/>
   <dimension ref="A1:S53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6360,7 +6359,7 @@
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -6605,21 +6604,4 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
 </file>